--- a/IMED/DPP_Revised/First_revised2.xlsx
+++ b/IMED/DPP_Revised/First_revised2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="26" autoFilterDateGrouping="1" firstSheet="24" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10425" windowWidth="19425" xWindow="-105" yWindow="-105"/>
+    <workbookView activeTab="27" autoFilterDateGrouping="1" firstSheet="24" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10428" windowWidth="19428" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <definedName localSheetId="20" name="_xlnm.Print_Titles">'Package_wise_quantity'!$1:$1</definedName>
     <definedName localSheetId="20" name="_xlnm.Print_Area">'Package_wise_quantity'!$A$1:$U$60</definedName>
     <definedName localSheetId="21" name="_xlnm.Print_Titles">'Package_wise_cost'!$1:$1</definedName>
-    <definedName localSheetId="21" name="_xlnm.Print_Area">'Package_wise_cost'!$A$1:$T$59</definedName>
+    <definedName localSheetId="21" name="_xlnm.Print_Area">'Package_wise_cost'!$A$1:$T$61</definedName>
     <definedName localSheetId="26" name="_xlnm.Print_Area">'District_Wise_Quantity'!$A$1:$U$7</definedName>
     <definedName localSheetId="27" name="_xlnm.Print_Area">'District_Wise_Cost'!$A$1:$U$7</definedName>
     <definedName localSheetId="32" name="_xlnm.Print_Area">'Sheet2'!$A$1:$F$13</definedName>
@@ -578,7 +578,7 @@
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0"/>
     <xf borderId="0" fillId="7" fontId="38" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="364">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -1633,6 +1633,9 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1643,6 +1646,74 @@
     <cellStyle builtinId="27" name="Bad" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1921,9 +1992,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="28.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="356" width="39.85546875"/>
-    <col customWidth="1" max="6" min="6" style="356" width="11.85546875"/>
-    <col customWidth="1" max="7" min="7" style="326" width="9.140625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="39.88671875"/>
+    <col customWidth="1" max="6" min="6" style="356" width="11.88671875"/>
+    <col customWidth="1" max="7" min="7" style="326" width="9.109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="28.5" r="1" s="356">
@@ -3549,9 +3620,9 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="17.28515625"/>
+    <col customWidth="1" max="1" min="1" style="356" width="17.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6567,9 +6638,9 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="17.28515625"/>
+    <col customWidth="1" max="1" min="1" style="356" width="17.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9899,9 +9970,9 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="17.140625"/>
+    <col customWidth="1" max="1" min="1" style="356" width="17.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10271,16 +10342,16 @@
       <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="17.140625"/>
-    <col customWidth="1" max="2" min="2" style="356" width="66.28515625"/>
-    <col customWidth="1" max="3" min="3" style="356" width="12.85546875"/>
-    <col customWidth="1" max="4" min="4" style="356" width="25.5703125"/>
-    <col customWidth="1" max="5" min="5" style="356" width="22.42578125"/>
-    <col customWidth="1" max="6" min="6" style="326" width="8.7109375"/>
-    <col customWidth="1" max="269" min="7" style="356" width="8.7109375"/>
-    <col customWidth="1" max="16384" min="270" style="356" width="8.7109375"/>
+    <col customWidth="1" max="1" min="1" style="356" width="17.109375"/>
+    <col customWidth="1" max="2" min="2" style="356" width="66.33203125"/>
+    <col customWidth="1" max="3" min="3" style="356" width="12.88671875"/>
+    <col customWidth="1" max="4" min="4" style="356" width="25.5546875"/>
+    <col customWidth="1" max="5" min="5" style="356" width="22.44140625"/>
+    <col customWidth="1" max="6" min="6" style="326" width="8.6640625"/>
+    <col customWidth="1" max="270" min="7" style="356" width="8.6640625"/>
+    <col customWidth="1" max="16384" min="271" style="356" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14259,13 +14330,13 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="16.140625"/>
-    <col customWidth="1" max="2" min="2" style="356" width="66.28515625"/>
-    <col customWidth="1" max="16" min="15" style="356" width="8.7109375"/>
-    <col customWidth="1" max="20" min="20" style="356" width="23.42578125"/>
-    <col customWidth="1" max="21" min="21" style="356" width="16.85546875"/>
+    <col customWidth="1" max="1" min="1" style="356" width="16.109375"/>
+    <col customWidth="1" max="2" min="2" style="356" width="66.33203125"/>
+    <col customWidth="1" max="16" min="15" style="356" width="8.6640625"/>
+    <col customWidth="1" max="20" min="20" style="356" width="23.44140625"/>
+    <col customWidth="1" max="21" min="21" style="356" width="16.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15434,13 +15505,13 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="19.7109375"/>
-    <col customWidth="1" max="2" min="2" style="356" width="66.85546875"/>
-    <col customWidth="1" max="3" min="3" style="356" width="9.85546875"/>
-    <col customWidth="1" max="4" min="4" style="356" width="15.42578125"/>
-    <col customWidth="1" max="6" min="6" style="356" width="15.140625"/>
+    <col customWidth="1" max="1" min="1" style="356" width="19.6640625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="66.88671875"/>
+    <col customWidth="1" max="3" min="3" style="356" width="9.88671875"/>
+    <col customWidth="1" max="4" min="4" style="356" width="15.44140625"/>
+    <col customWidth="1" max="6" min="6" style="356" width="15.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15808,12 +15879,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="14.42578125"/>
-    <col customWidth="1" max="2" min="2" style="356" width="22.85546875"/>
-    <col customWidth="1" max="3" min="3" style="356" width="25.28515625"/>
-    <col customWidth="1" max="4" min="4" style="356" width="21.140625"/>
+    <col customWidth="1" max="1" min="1" style="356" width="14.44140625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="22.88671875"/>
+    <col customWidth="1" max="3" min="3" style="356" width="25.33203125"/>
+    <col customWidth="1" max="4" min="4" style="356" width="21.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16346,13 +16417,13 @@
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="25.140625"/>
-    <col customWidth="1" max="2" min="2" style="356" width="18.5703125"/>
-    <col customWidth="1" max="3" min="3" style="356" width="17.28515625"/>
-    <col customWidth="1" max="4" min="4" style="356" width="18.140625"/>
-    <col customWidth="1" max="5" min="5" style="356" width="19.42578125"/>
+    <col customWidth="1" max="1" min="1" style="356" width="25.109375"/>
+    <col customWidth="1" max="2" min="2" style="356" width="18.5546875"/>
+    <col customWidth="1" max="3" min="3" style="356" width="17.33203125"/>
+    <col customWidth="1" max="4" min="4" style="356" width="18.109375"/>
+    <col customWidth="1" max="5" min="5" style="356" width="19.44140625"/>
     <col customWidth="1" max="6" min="6" style="356" width="22"/>
   </cols>
   <sheetData>
@@ -17587,12 +17658,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="356" width="42"/>
-    <col customWidth="1" max="2" min="2" style="356" width="12.140625"/>
-    <col customWidth="1" max="20" min="3" style="356" width="20.42578125"/>
-    <col customWidth="1" max="21" min="21" style="356" width="17.7109375"/>
+    <col customWidth="1" max="2" min="2" style="356" width="12.109375"/>
+    <col customWidth="1" max="20" min="3" style="356" width="20.44140625"/>
+    <col customWidth="1" max="21" min="21" style="356" width="17.6640625"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="61.5" r="1" s="70">
@@ -18709,22 +18780,22 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="65.42578125"/>
-    <col customWidth="1" max="2" min="2" style="356" width="22.85546875"/>
-    <col customWidth="1" max="3" min="3" style="356" width="23.5703125"/>
-    <col customWidth="1" max="8" min="4" style="356" width="22.85546875"/>
-    <col customWidth="1" max="9" min="9" style="356" width="31.42578125"/>
-    <col customWidth="1" max="10" min="10" style="356" width="32.5703125"/>
-    <col customWidth="1" max="11" min="11" style="356" width="25.7109375"/>
-    <col customWidth="1" max="12" min="12" style="356" width="29.85546875"/>
-    <col customWidth="1" max="13" min="13" style="356" width="27.5703125"/>
-    <col customWidth="1" max="18" min="14" style="356" width="22.85546875"/>
-    <col customWidth="1" max="19" min="19" style="356" width="25.7109375"/>
-    <col customWidth="1" max="21" min="20" style="356" width="22.85546875"/>
-    <col customWidth="1" max="267" min="22" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="268" style="356" width="9.140625"/>
+    <col customWidth="1" max="1" min="1" style="356" width="65.44140625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="22.88671875"/>
+    <col customWidth="1" max="3" min="3" style="356" width="23.5546875"/>
+    <col customWidth="1" max="8" min="4" style="356" width="22.88671875"/>
+    <col customWidth="1" max="9" min="9" style="356" width="31.44140625"/>
+    <col customWidth="1" max="10" min="10" style="356" width="32.5546875"/>
+    <col customWidth="1" max="11" min="11" style="356" width="25.6640625"/>
+    <col customWidth="1" max="12" min="12" style="356" width="29.88671875"/>
+    <col customWidth="1" max="13" min="13" style="356" width="27.5546875"/>
+    <col customWidth="1" max="18" min="14" style="356" width="22.88671875"/>
+    <col customWidth="1" max="19" min="19" style="356" width="25.6640625"/>
+    <col customWidth="1" max="21" min="20" style="356" width="22.88671875"/>
+    <col customWidth="1" max="268" min="22" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="269" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="113.25" r="1" s="70">
@@ -20949,13 +21020,13 @@
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="326" width="9.140625"/>
-    <col customWidth="1" max="2" min="2" style="326" width="51.5703125"/>
-    <col customWidth="1" max="9" min="3" style="326" width="9.140625"/>
-    <col customWidth="1" max="10" min="10" style="326" width="12.7109375"/>
-    <col customWidth="1" max="15" min="15" style="356" width="43.7109375"/>
+    <col customWidth="1" max="1" min="1" style="326" width="9.109375"/>
+    <col customWidth="1" max="2" min="2" style="326" width="51.5546875"/>
+    <col customWidth="1" max="9" min="3" style="326" width="9.109375"/>
+    <col customWidth="1" max="10" min="10" style="326" width="12.6640625"/>
+    <col customWidth="1" max="15" min="15" style="356" width="43.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -23482,31 +23553,31 @@
   </sheetPr>
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" view="pageBreakPreview" workbookViewId="0" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView topLeftCell="A13" view="pageBreakPreview" workbookViewId="0" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="356" width="34"/>
-    <col customWidth="1" max="2" min="2" style="356" width="12.140625"/>
-    <col customWidth="1" max="4" min="3" style="356" width="14.42578125"/>
+    <col customWidth="1" max="2" min="2" style="356" width="12.109375"/>
+    <col customWidth="1" max="4" min="3" style="356" width="14.44140625"/>
     <col customWidth="1" max="5" min="5" style="356" width="16"/>
-    <col customWidth="1" max="6" min="6" style="356" width="14.42578125"/>
-    <col customWidth="1" max="7" min="7" style="356" width="16.5703125"/>
-    <col customWidth="1" max="8" min="8" style="356" width="14.42578125"/>
-    <col customWidth="1" max="9" min="9" style="356" width="17.28515625"/>
-    <col customWidth="1" max="10" min="10" style="356" width="19.140625"/>
+    <col customWidth="1" max="6" min="6" style="356" width="14.44140625"/>
+    <col customWidth="1" max="7" min="7" style="356" width="16.5546875"/>
+    <col customWidth="1" max="8" min="8" style="356" width="14.44140625"/>
+    <col customWidth="1" max="9" min="9" style="356" width="17.33203125"/>
+    <col customWidth="1" max="10" min="10" style="356" width="19.109375"/>
     <col customWidth="1" max="11" min="11" style="356" width="18"/>
-    <col customWidth="1" max="15" min="12" style="356" width="14.42578125"/>
+    <col customWidth="1" max="15" min="12" style="356" width="14.44140625"/>
     <col customWidth="1" max="16" min="16" style="356" width="20"/>
-    <col customWidth="1" max="17" min="17" style="356" width="20.42578125"/>
-    <col customWidth="1" max="18" min="18" style="356" width="14.42578125"/>
-    <col customWidth="1" max="19" min="19" style="356" width="16.5703125"/>
-    <col customWidth="1" max="20" min="20" style="356" width="15.140625"/>
-    <col customWidth="1" max="21" min="21" style="326" width="16.42578125"/>
-    <col customWidth="1" max="269" min="22" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="270" style="356" width="9.140625"/>
+    <col customWidth="1" max="17" min="17" style="356" width="20.44140625"/>
+    <col customWidth="1" max="18" min="18" style="356" width="14.44140625"/>
+    <col customWidth="1" max="19" min="19" style="356" width="16.5546875"/>
+    <col customWidth="1" max="20" min="20" style="356" width="15.109375"/>
+    <col customWidth="1" max="21" min="21" style="326" width="16.44140625"/>
+    <col customWidth="1" max="270" min="22" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="271" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="66" r="1" s="70">
@@ -24048,7 +24119,7 @@
         </is>
       </c>
       <c r="C8" s="98" t="n">
-        <v>41.87</v>
+        <v>47.87</v>
       </c>
       <c r="D8" s="98" t="n">
         <v>0</v>
@@ -25811,33 +25882,33 @@
   </sheetPr>
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55">
+    <sheetView topLeftCell="A40" view="pageBreakPreview" workbookViewId="0" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55">
       <selection activeCell="A2" sqref="A2:A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="29.28515625"/>
-    <col customWidth="1" max="2" min="2" style="356" width="13.28515625"/>
-    <col customWidth="1" max="3" min="3" style="356" width="14.42578125"/>
-    <col customWidth="1" max="4" min="4" style="356" width="14.140625"/>
-    <col customWidth="1" max="5" min="5" style="356" width="15.7109375"/>
-    <col customWidth="1" max="6" min="6" style="356" width="13.28515625"/>
-    <col customWidth="1" max="7" min="7" style="356" width="12.42578125"/>
-    <col customWidth="1" max="8" min="8" style="356" width="9.5703125"/>
-    <col customWidth="1" max="9" min="9" style="356" width="21.28515625"/>
-    <col customWidth="1" max="10" min="10" style="356" width="17.140625"/>
+    <col customWidth="1" max="1" min="1" style="356" width="29.33203125"/>
+    <col customWidth="1" max="2" min="2" style="356" width="13.33203125"/>
+    <col customWidth="1" max="3" min="3" style="356" width="14.44140625"/>
+    <col customWidth="1" max="4" min="4" style="356" width="14.109375"/>
+    <col customWidth="1" max="5" min="5" style="356" width="15.6640625"/>
+    <col customWidth="1" max="6" min="6" style="356" width="13.33203125"/>
+    <col customWidth="1" max="7" min="7" style="356" width="12.44140625"/>
+    <col customWidth="1" max="8" min="8" style="356" width="9.5546875"/>
+    <col customWidth="1" max="9" min="9" style="356" width="21.33203125"/>
+    <col customWidth="1" max="10" min="10" style="356" width="17.109375"/>
     <col customWidth="1" max="11" min="11" style="356" width="17"/>
-    <col customWidth="1" max="12" min="12" style="356" width="15.5703125"/>
-    <col customWidth="1" max="13" min="13" style="356" width="19.7109375"/>
-    <col customWidth="1" max="14" min="14" style="356" width="14.5703125"/>
-    <col customWidth="1" max="15" min="15" style="356" width="13.140625"/>
-    <col customWidth="1" max="16" min="16" style="356" width="17.140625"/>
-    <col customWidth="1" max="17" min="17" style="356" width="15.5703125"/>
-    <col customWidth="1" max="18" min="18" style="356" width="14.7109375"/>
-    <col customWidth="1" max="19" min="19" style="356" width="13.42578125"/>
-    <col customWidth="1" max="20" min="20" style="356" width="9.5703125"/>
-    <col customWidth="1" max="21" min="21" style="356" width="9.28515625"/>
+    <col customWidth="1" max="12" min="12" style="356" width="15.5546875"/>
+    <col customWidth="1" max="13" min="13" style="356" width="19.6640625"/>
+    <col customWidth="1" max="14" min="14" style="356" width="14.5546875"/>
+    <col customWidth="1" max="15" min="15" style="356" width="13.109375"/>
+    <col customWidth="1" max="16" min="16" style="356" width="17.109375"/>
+    <col customWidth="1" max="17" min="17" style="356" width="15.5546875"/>
+    <col customWidth="1" max="18" min="18" style="356" width="14.6640625"/>
+    <col customWidth="1" max="19" min="19" style="356" width="13.44140625"/>
+    <col customWidth="1" max="20" min="20" style="356" width="9.5546875"/>
+    <col customWidth="1" max="21" min="21" style="356" width="9.33203125"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="89.25" r="1" s="70">
@@ -29611,7 +29682,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="3" orientation="landscape" paperSize="9" scale="40"/>
+  <pageSetup fitToHeight="3" orientation="landscape" paperSize="9" scale="41"/>
 </worksheet>
 </file>
 
@@ -29623,29 +29694,29 @@
   </sheetPr>
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="L52" view="pageBreakPreview" workbookViewId="0" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55">
-      <selection activeCell="T63" sqref="T63"/>
+    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="65.7109375"/>
-    <col customWidth="1" max="2" min="2" style="356" width="32.42578125"/>
-    <col customWidth="1" max="8" min="3" style="326" width="32.42578125"/>
-    <col customWidth="1" max="9" min="9" style="326" width="34.28515625"/>
-    <col customWidth="1" max="10" min="10" style="326" width="33.5703125"/>
-    <col customWidth="1" max="11" min="11" style="326" width="32.42578125"/>
-    <col customWidth="1" max="13" min="12" style="326" width="35.28515625"/>
-    <col customWidth="1" max="14" min="14" style="326" width="32.42578125"/>
-    <col customWidth="1" max="15" min="15" style="326" width="38.7109375"/>
-    <col customWidth="1" max="16" min="16" style="326" width="37.5703125"/>
-    <col customWidth="1" max="17" min="17" style="326" width="35.85546875"/>
-    <col customWidth="1" max="18" min="18" style="326" width="32.42578125"/>
-    <col customWidth="1" max="19" min="19" style="326" width="36.42578125"/>
+    <col customWidth="1" max="1" min="1" style="356" width="65.6640625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="32.44140625"/>
+    <col customWidth="1" max="8" min="3" style="326" width="32.44140625"/>
+    <col customWidth="1" max="9" min="9" style="326" width="34.33203125"/>
+    <col customWidth="1" max="10" min="10" style="326" width="33.5546875"/>
+    <col customWidth="1" max="11" min="11" style="326" width="32.44140625"/>
+    <col customWidth="1" max="13" min="12" style="326" width="35.33203125"/>
+    <col customWidth="1" max="14" min="14" style="326" width="32.44140625"/>
+    <col customWidth="1" max="15" min="15" style="326" width="38.6640625"/>
+    <col customWidth="1" max="16" min="16" style="326" width="37.5546875"/>
+    <col customWidth="1" max="17" min="17" style="326" width="35.88671875"/>
+    <col customWidth="1" max="18" min="18" style="326" width="32.44140625"/>
+    <col customWidth="1" max="19" min="19" style="326" width="36.44140625"/>
     <col customWidth="1" max="20" min="20" style="356" width="40"/>
-    <col customWidth="1" max="21" min="21" style="356" width="12.5703125"/>
-    <col customWidth="1" max="260" min="22" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="261" style="356" width="9.140625"/>
+    <col customWidth="1" max="21" min="21" style="356" width="12.5546875"/>
+    <col customWidth="1" max="261" min="22" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="262" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="180.75" r="1" s="70">
@@ -31149,7 +31220,7 @@
       </c>
       <c r="B23" s="203" t="n"/>
       <c r="C23" s="203" t="n">
-        <v>41.87</v>
+        <v>47.87</v>
       </c>
       <c r="D23" s="203" t="n">
         <v>0</v>
@@ -33509,7 +33580,10 @@
       <c r="S58" s="314" t="n">
         <v>0</v>
       </c>
-      <c r="T58" s="314" t="n"/>
+      <c r="T58" s="204">
+        <f>SUM(B58:S58)</f>
+        <v/>
+      </c>
       <c r="U58" s="197" t="n">
         <v>58</v>
       </c>
@@ -33572,14 +33646,17 @@
       <c r="S59" s="314" t="n">
         <v>0</v>
       </c>
-      <c r="T59" s="181" t="n"/>
+      <c r="T59" s="204">
+        <f>SUM(T2:T58)</f>
+        <v/>
+      </c>
       <c r="U59" s="197" t="n">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="4" orientation="landscape" paperSize="8" scale="17"/>
+  <pageSetup fitToHeight="4" orientation="landscape" paperSize="8" scale="26"/>
 </worksheet>
 </file>
 
@@ -33595,25 +33672,25 @@
       <selection activeCell="A2" sqref="A2:A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="30.85546875"/>
+    <col customWidth="1" max="1" min="1" style="356" width="30.88671875"/>
     <col customWidth="1" max="2" min="2" style="356" width="15"/>
-    <col customWidth="1" max="3" min="3" style="356" width="15.42578125"/>
-    <col customWidth="1" max="4" min="4" style="356" width="14.28515625"/>
-    <col customWidth="1" max="5" min="5" style="356" width="14.85546875"/>
-    <col customWidth="1" max="6" min="6" style="356" width="12.7109375"/>
-    <col customWidth="1" max="7" min="7" style="356" width="12.85546875"/>
-    <col customWidth="1" max="8" min="8" style="356" width="13.7109375"/>
-    <col customWidth="1" max="9" min="9" style="356" width="14.42578125"/>
-    <col customWidth="1" max="10" min="10" style="356" width="15.28515625"/>
-    <col customWidth="1" max="11" min="11" style="356" width="13.5703125"/>
-    <col customWidth="1" max="12" min="12" style="356" width="14.5703125"/>
-    <col customWidth="1" max="13" min="13" style="356" width="13.7109375"/>
-    <col customWidth="1" max="14" min="14" style="356" width="14.140625"/>
-    <col customWidth="1" max="17" min="15" style="356" width="12.85546875"/>
-    <col customWidth="1" max="260" min="18" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="261" style="356" width="9.140625"/>
+    <col customWidth="1" max="3" min="3" style="356" width="15.44140625"/>
+    <col customWidth="1" max="4" min="4" style="356" width="14.33203125"/>
+    <col customWidth="1" max="5" min="5" style="356" width="14.88671875"/>
+    <col customWidth="1" max="6" min="6" style="356" width="12.6640625"/>
+    <col customWidth="1" max="7" min="7" style="356" width="12.88671875"/>
+    <col customWidth="1" max="8" min="8" style="356" width="13.6640625"/>
+    <col customWidth="1" max="9" min="9" style="356" width="14.44140625"/>
+    <col customWidth="1" max="10" min="10" style="356" width="15.33203125"/>
+    <col customWidth="1" max="11" min="11" style="356" width="13.5546875"/>
+    <col customWidth="1" max="12" min="12" style="356" width="14.5546875"/>
+    <col customWidth="1" max="13" min="13" style="356" width="13.6640625"/>
+    <col customWidth="1" max="14" min="14" style="356" width="14.109375"/>
+    <col customWidth="1" max="17" min="15" style="356" width="12.88671875"/>
+    <col customWidth="1" max="261" min="18" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="262" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="51.75" r="1" s="70">
@@ -35423,18 +35500,18 @@
       <selection activeCell="I22" sqref="I22:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="356" width="49"/>
-    <col customWidth="1" max="2" min="2" style="356" width="10.5703125"/>
-    <col customWidth="1" max="3" min="3" style="356" width="14.7109375"/>
-    <col customWidth="1" max="5" min="4" style="356" width="11.28515625"/>
-    <col customWidth="1" max="9" min="6" style="356" width="12.42578125"/>
+    <col customWidth="1" max="2" min="2" style="356" width="10.5546875"/>
+    <col customWidth="1" max="3" min="3" style="356" width="14.6640625"/>
+    <col customWidth="1" max="5" min="4" style="356" width="11.33203125"/>
+    <col customWidth="1" max="9" min="6" style="356" width="12.44140625"/>
     <col customWidth="1" max="10" min="10" style="356" width="19"/>
-    <col customWidth="1" max="11" min="11" style="356" width="18.85546875"/>
+    <col customWidth="1" max="11" min="11" style="356" width="18.88671875"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="33.95" r="1" s="70">
+    <row customFormat="1" customHeight="1" ht="33.9" r="1" s="70">
       <c r="A1" s="100" t="inlineStr">
         <is>
           <t>name</t>
@@ -35946,16 +36023,16 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="356" width="10.42578125"/>
-    <col customWidth="1" max="2" min="2" style="70" width="49.42578125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="356" width="8.85546875"/>
-    <col customWidth="1" max="5" min="4" style="356" width="8.7109375"/>
-    <col customWidth="1" max="8" min="6" style="356" width="9.140625"/>
-    <col customWidth="1" max="9" min="9" style="356" width="18.42578125"/>
-    <col customWidth="1" max="132" min="10" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="133" style="356" width="9.140625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="356" width="10.44140625"/>
+    <col customWidth="1" max="2" min="2" style="70" width="49.44140625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="356" width="8.88671875"/>
+    <col customWidth="1" max="5" min="4" style="356" width="8.6640625"/>
+    <col customWidth="1" max="8" min="6" style="356" width="9.109375"/>
+    <col customWidth="1" max="9" min="9" style="356" width="18.44140625"/>
+    <col customWidth="1" max="133" min="10" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="134" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -36088,7 +36165,7 @@
       <c r="L4" s="326" t="n"/>
       <c r="M4" s="326" t="n"/>
     </row>
-    <row customHeight="1" ht="26.45" r="5" s="356">
+    <row customHeight="1" ht="26.4" r="5" s="356">
       <c r="A5" s="195" t="n">
         <v>4111307</v>
       </c>
@@ -36370,29 +36447,29 @@
       <selection activeCell="R1" sqref="R1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="16.5703125"/>
+    <col customWidth="1" max="1" min="1" style="356" width="16.5546875"/>
     <col customWidth="1" max="2" min="2" style="356" width="15"/>
-    <col customWidth="1" max="3" min="3" style="356" width="12.85546875"/>
-    <col customWidth="1" max="4" min="4" style="356" width="12.42578125"/>
-    <col customWidth="1" max="5" min="5" style="356" width="11.28515625"/>
-    <col customWidth="1" max="6" min="6" style="356" width="12.7109375"/>
-    <col customWidth="1" max="7" min="7" style="356" width="12.85546875"/>
-    <col customWidth="1" max="8" min="8" style="356" width="13.7109375"/>
-    <col customWidth="1" max="9" min="9" style="356" width="14.42578125"/>
-    <col customWidth="1" max="10" min="10" style="356" width="15.28515625"/>
-    <col customWidth="1" max="11" min="11" style="356" width="13.5703125"/>
-    <col customWidth="1" max="12" min="12" style="356" width="14.5703125"/>
-    <col customWidth="1" max="13" min="13" style="356" width="13.7109375"/>
-    <col customWidth="1" max="14" min="14" style="356" width="14.140625"/>
-    <col customWidth="1" max="15" min="15" style="356" width="13.85546875"/>
-    <col customWidth="1" max="16" min="16" style="356" width="15.28515625"/>
-    <col customWidth="1" max="19" min="17" style="356" width="14.7109375"/>
-    <col customWidth="1" max="20" min="20" style="356" width="9.140625"/>
+    <col customWidth="1" max="3" min="3" style="356" width="12.88671875"/>
+    <col customWidth="1" max="4" min="4" style="356" width="12.44140625"/>
+    <col customWidth="1" max="5" min="5" style="356" width="11.33203125"/>
+    <col customWidth="1" max="6" min="6" style="356" width="12.6640625"/>
+    <col customWidth="1" max="7" min="7" style="356" width="12.88671875"/>
+    <col customWidth="1" max="8" min="8" style="356" width="13.6640625"/>
+    <col customWidth="1" max="9" min="9" style="356" width="14.44140625"/>
+    <col customWidth="1" max="10" min="10" style="356" width="15.33203125"/>
+    <col customWidth="1" max="11" min="11" style="356" width="13.5546875"/>
+    <col customWidth="1" max="12" min="12" style="356" width="14.5546875"/>
+    <col customWidth="1" max="13" min="13" style="356" width="13.6640625"/>
+    <col customWidth="1" max="14" min="14" style="356" width="14.109375"/>
+    <col customWidth="1" max="15" min="15" style="356" width="13.88671875"/>
+    <col customWidth="1" max="16" min="16" style="356" width="15.33203125"/>
+    <col customWidth="1" max="19" min="17" style="356" width="14.6640625"/>
+    <col customWidth="1" max="20" min="20" style="356" width="9.109375"/>
     <col customWidth="1" max="21" min="21" style="356" width="12"/>
-    <col customWidth="1" max="262" min="22" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="263" style="356" width="9.140625"/>
+    <col customWidth="1" max="263" min="22" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="264" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="58.5" r="1" s="94">
@@ -36681,32 +36758,32 @@
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="16.5703125"/>
+    <col customWidth="1" max="1" min="1" style="356" width="16.5546875"/>
     <col customWidth="1" max="2" min="2" style="356" width="15"/>
-    <col customWidth="1" max="3" min="3" style="356" width="16.140625"/>
+    <col customWidth="1" max="3" min="3" style="356" width="16.109375"/>
     <col customWidth="1" max="4" min="4" style="356" width="15"/>
-    <col customWidth="1" max="5" min="5" style="356" width="11.28515625"/>
-    <col customWidth="1" max="6" min="6" style="356" width="14.85546875"/>
-    <col customWidth="1" max="7" min="7" style="356" width="12.85546875"/>
-    <col customWidth="1" max="8" min="8" style="356" width="13.7109375"/>
-    <col customWidth="1" max="9" min="9" style="356" width="16.85546875"/>
-    <col customWidth="1" max="10" min="10" style="356" width="15.28515625"/>
-    <col customWidth="1" max="11" min="11" style="356" width="13.5703125"/>
-    <col customWidth="1" max="12" min="12" style="356" width="14.5703125"/>
-    <col customWidth="1" max="13" min="13" style="356" width="15.42578125"/>
-    <col customWidth="1" max="14" min="14" style="356" width="16.85546875"/>
-    <col customWidth="1" max="16" min="15" style="356" width="12.85546875"/>
-    <col customWidth="1" max="19" min="17" style="356" width="14.85546875"/>
-    <col customWidth="1" max="20" min="20" style="356" width="9.140625"/>
-    <col customWidth="1" max="21" min="21" style="356" width="13.28515625"/>
-    <col customWidth="1" max="262" min="22" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="263" style="356" width="9.140625"/>
+    <col customWidth="1" max="5" min="5" style="356" width="11.33203125"/>
+    <col customWidth="1" max="6" min="6" style="356" width="14.88671875"/>
+    <col customWidth="1" max="7" min="7" style="356" width="12.88671875"/>
+    <col customWidth="1" max="8" min="8" style="356" width="13.6640625"/>
+    <col customWidth="1" max="9" min="9" style="356" width="16.88671875"/>
+    <col customWidth="1" max="10" min="10" style="356" width="15.33203125"/>
+    <col customWidth="1" max="11" min="11" style="356" width="13.5546875"/>
+    <col customWidth="1" max="12" min="12" style="356" width="14.5546875"/>
+    <col customWidth="1" max="13" min="13" style="356" width="15.44140625"/>
+    <col customWidth="1" max="14" min="14" style="356" width="16.88671875"/>
+    <col customWidth="1" max="16" min="15" style="356" width="12.88671875"/>
+    <col customWidth="1" max="19" min="17" style="356" width="14.88671875"/>
+    <col customWidth="1" max="20" min="20" style="356" width="9.109375"/>
+    <col customWidth="1" max="21" min="21" style="356" width="13.33203125"/>
+    <col customWidth="1" max="263" min="22" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="264" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="111" r="1" s="94">
@@ -37230,7 +37307,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" paperSize="9" scale="43"/>
+  <pageSetup orientation="landscape" paperSize="9" scale="44"/>
 </worksheet>
 </file>
 
@@ -37242,33 +37319,33 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70">
-      <selection activeCell="L10" sqref="L9:L10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="16.5703125"/>
+    <col customWidth="1" max="1" min="1" style="356" width="16.5546875"/>
     <col customWidth="1" max="2" min="2" style="356" width="15"/>
-    <col customWidth="1" max="3" min="3" style="356" width="16.85546875"/>
-    <col customWidth="1" max="4" min="4" style="356" width="15.28515625"/>
-    <col customWidth="1" max="5" min="5" style="356" width="18.42578125"/>
-    <col customWidth="1" max="6" min="6" style="356" width="17.42578125"/>
-    <col customWidth="1" max="7" min="7" style="356" width="17.140625"/>
-    <col customWidth="1" max="8" min="8" style="356" width="13.7109375"/>
-    <col customWidth="1" max="9" min="9" style="356" width="18.140625"/>
-    <col customWidth="1" max="10" min="10" style="356" width="15.28515625"/>
-    <col customWidth="1" max="11" min="11" style="356" width="21.28515625"/>
-    <col customWidth="1" max="12" min="12" style="356" width="20.85546875"/>
-    <col customWidth="1" max="13" min="13" style="356" width="20.42578125"/>
-    <col customWidth="1" max="14" min="14" style="356" width="14.140625"/>
-    <col customWidth="1" max="15" min="15" style="356" width="15.42578125"/>
-    <col customWidth="1" max="16" min="16" style="356" width="16.5703125"/>
-    <col customWidth="1" max="19" min="17" style="356" width="12.85546875"/>
-    <col customWidth="1" max="20" min="20" style="356" width="17.42578125"/>
-    <col customWidth="1" max="21" min="21" style="356" width="11.85546875"/>
-    <col customWidth="1" max="262" min="22" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="263" style="356" width="9.140625"/>
+    <col customWidth="1" max="3" min="3" style="356" width="16.88671875"/>
+    <col customWidth="1" max="4" min="4" style="356" width="15.33203125"/>
+    <col customWidth="1" max="5" min="5" style="356" width="18.44140625"/>
+    <col customWidth="1" max="6" min="6" style="356" width="17.44140625"/>
+    <col customWidth="1" max="7" min="7" style="356" width="17.109375"/>
+    <col customWidth="1" max="8" min="8" style="356" width="13.6640625"/>
+    <col customWidth="1" max="9" min="9" style="356" width="18.109375"/>
+    <col customWidth="1" max="10" min="10" style="356" width="19"/>
+    <col customWidth="1" max="11" min="11" style="356" width="21.33203125"/>
+    <col customWidth="1" max="12" min="12" style="356" width="23.77734375"/>
+    <col customWidth="1" max="13" min="13" style="356" width="23.109375"/>
+    <col customWidth="1" max="14" min="14" style="356" width="14.109375"/>
+    <col customWidth="1" max="15" min="15" style="356" width="15.44140625"/>
+    <col customWidth="1" max="16" min="16" style="356" width="22.109375"/>
+    <col customWidth="1" max="19" min="17" style="356" width="12.88671875"/>
+    <col customWidth="1" max="20" min="20" style="356" width="17.44140625"/>
+    <col customWidth="1" max="21" min="21" style="356" width="11.88671875"/>
+    <col customWidth="1" max="263" min="22" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="264" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="99" r="1" s="94">
@@ -37389,28 +37466,28 @@
           <t>KISH</t>
         </is>
       </c>
-      <c r="C2" s="96" t="n">
-        <v>794.1899999999999</v>
+      <c r="C2" s="362" t="n">
+        <v>800.1899999999999</v>
       </c>
       <c r="D2" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="96" t="n">
+      <c r="E2" s="362" t="n">
         <v>5743.73</v>
       </c>
-      <c r="F2" s="96" t="n">
+      <c r="F2" s="362" t="n">
         <v>666.98</v>
       </c>
-      <c r="G2" s="96" t="n">
+      <c r="G2" s="362" t="n">
         <v>3991</v>
       </c>
-      <c r="H2" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="96" t="n">
+      <c r="H2" s="362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="362" t="n">
         <v>4590.030000000001</v>
       </c>
-      <c r="J2" s="96" t="n">
+      <c r="J2" s="362" t="n">
         <v>496.55</v>
       </c>
       <c r="K2" s="96" t="n">
@@ -37419,22 +37496,22 @@
       <c r="L2" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="96" t="n">
+      <c r="M2" s="362" t="n">
         <v>16646.89</v>
       </c>
-      <c r="N2" s="96" t="n">
+      <c r="N2" s="362" t="n">
         <v>125</v>
       </c>
       <c r="O2" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="96" t="n">
+      <c r="P2" s="362" t="n">
         <v>225</v>
       </c>
-      <c r="Q2" s="96" t="n">
+      <c r="Q2" s="362" t="n">
         <v>1618</v>
       </c>
-      <c r="R2" s="96" t="n">
+      <c r="R2" s="362" t="n">
         <v>55.55</v>
       </c>
       <c r="S2" s="96" t="n">
@@ -37459,40 +37536,40 @@
           <t>HOBI</t>
         </is>
       </c>
-      <c r="C3" s="96" t="n">
+      <c r="C3" s="362" t="n">
         <v>134</v>
       </c>
-      <c r="D3" s="96" t="n">
+      <c r="D3" s="362" t="n">
         <v>783.05</v>
       </c>
-      <c r="E3" s="96" t="n">
+      <c r="E3" s="362" t="n">
         <v>1091.95</v>
       </c>
-      <c r="F3" s="96" t="n">
+      <c r="F3" s="362" t="n">
         <v>540</v>
       </c>
-      <c r="G3" s="96" t="n">
+      <c r="G3" s="362" t="n">
         <v>1011</v>
       </c>
       <c r="H3" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="96" t="n">
+      <c r="I3" s="362" t="n">
         <v>926.76</v>
       </c>
-      <c r="J3" s="96" t="n">
+      <c r="J3" s="362" t="n">
         <v>912.34</v>
       </c>
       <c r="K3" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="96" t="n">
+      <c r="L3" s="362" t="n">
         <v>1365.43</v>
       </c>
-      <c r="M3" s="96" t="n">
+      <c r="M3" s="362" t="n">
         <v>1161.49</v>
       </c>
-      <c r="N3" s="96" t="n">
+      <c r="N3" s="362" t="n">
         <v>9.69</v>
       </c>
       <c r="O3" s="96" t="n">
@@ -37504,7 +37581,7 @@
       <c r="Q3" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="96" t="n">
+      <c r="R3" s="362" t="n">
         <v>35</v>
       </c>
       <c r="S3" s="96" t="n">
@@ -37529,16 +37606,16 @@
           <t>NETR</t>
         </is>
       </c>
-      <c r="C4" s="96" t="n">
+      <c r="C4" s="362" t="n">
         <v>53.92</v>
       </c>
-      <c r="D4" s="96" t="n">
+      <c r="D4" s="362" t="n">
         <v>389.57</v>
       </c>
-      <c r="E4" s="96" t="n">
+      <c r="E4" s="362" t="n">
         <v>1642.1</v>
       </c>
-      <c r="F4" s="96" t="n">
+      <c r="F4" s="362" t="n">
         <v>383</v>
       </c>
       <c r="G4" s="96" t="n">
@@ -37547,22 +37624,22 @@
       <c r="H4" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="96" t="n">
+      <c r="I4" s="362" t="n">
         <v>1365</v>
       </c>
-      <c r="J4" s="96" t="n">
+      <c r="J4" s="362" t="n">
         <v>1990</v>
       </c>
-      <c r="K4" s="96" t="n">
+      <c r="K4" s="362" t="n">
         <v>2035.43</v>
       </c>
-      <c r="L4" s="96" t="n">
+      <c r="L4" s="362" t="n">
         <v>383</v>
       </c>
-      <c r="M4" s="96" t="n">
+      <c r="M4" s="362" t="n">
         <v>57.25</v>
       </c>
-      <c r="N4" s="96" t="n">
+      <c r="N4" s="362" t="n">
         <v>12</v>
       </c>
       <c r="O4" s="96" t="n">
@@ -37574,7 +37651,7 @@
       <c r="Q4" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="96" t="n">
+      <c r="R4" s="362" t="n">
         <v>140</v>
       </c>
       <c r="S4" s="96" t="n">
@@ -37599,25 +37676,25 @@
           <t>SUNM</t>
         </is>
       </c>
-      <c r="C5" s="96" t="n">
+      <c r="C5" s="362" t="n">
         <v>238.35</v>
       </c>
       <c r="D5" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="96" t="n">
+      <c r="E5" s="362" t="n">
         <v>1154.78</v>
       </c>
-      <c r="F5" s="96" t="n">
+      <c r="F5" s="362" t="n">
         <v>346.76</v>
       </c>
-      <c r="G5" s="96" t="n">
+      <c r="G5" s="362" t="n">
         <v>1850.07</v>
       </c>
       <c r="H5" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="96" t="n">
+      <c r="I5" s="362" t="n">
         <v>3302.34</v>
       </c>
       <c r="J5" s="96" t="n">
@@ -37629,7 +37706,7 @@
       <c r="L5" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="96" t="n">
+      <c r="M5" s="362" t="n">
         <v>3579.6</v>
       </c>
       <c r="N5" s="96" t="n">
@@ -37659,7 +37736,11 @@
       </c>
     </row>
     <row customHeight="1" ht="21" r="6" s="356">
-      <c r="A6" s="96" t="n"/>
+      <c r="A6" s="96" t="inlineStr">
+        <is>
+          <t>Brahman Baria</t>
+        </is>
+      </c>
       <c r="B6" s="96" t="n"/>
       <c r="C6" s="96" t="n">
         <v>0</v>
@@ -37712,7 +37793,10 @@
       <c r="S6" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="T6" s="96" t="n"/>
+      <c r="T6" s="96">
+        <f>SUM(C6:S6)</f>
+        <v/>
+      </c>
       <c r="U6" s="96" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="7" s="356">
@@ -37784,7 +37868,10 @@
       </c>
       <c r="R7" s="96" t="n"/>
       <c r="S7" s="96" t="n"/>
-      <c r="T7" s="96" t="n"/>
+      <c r="T7" s="96">
+        <f>SUM(T2:T6)</f>
+        <v/>
+      </c>
       <c r="U7" s="96" t="n"/>
     </row>
     <row r="8">
@@ -37812,7 +37899,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" paperSize="9" scale="38"/>
+  <pageSetup orientation="landscape" paperSize="9" scale="37"/>
 </worksheet>
 </file>
 
@@ -37828,7 +37915,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -37848,13 +37935,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="28.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="356" width="51.140625"/>
-    <col customWidth="1" max="3" min="3" style="356" width="14.7109375"/>
-    <col customWidth="1" max="6" min="6" style="356" width="11.85546875"/>
-    <col customWidth="1" max="7" min="7" style="326" width="9.140625"/>
-    <col customWidth="1" max="8" min="8" style="356" width="15.28515625"/>
-    <col customWidth="1" max="10" min="10" style="350" width="13.42578125"/>
-    <col customWidth="1" max="11" min="11" style="356" width="60.140625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="51.109375"/>
+    <col customWidth="1" max="3" min="3" style="356" width="14.6640625"/>
+    <col customWidth="1" max="6" min="6" style="356" width="11.88671875"/>
+    <col customWidth="1" max="7" min="7" style="326" width="9.109375"/>
+    <col customWidth="1" max="8" min="8" style="356" width="15.33203125"/>
+    <col customWidth="1" max="10" min="10" style="350" width="13.44140625"/>
+    <col customWidth="1" max="11" min="11" style="356" width="60.109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="28.5" r="1" s="356">
@@ -39646,16 +39733,16 @@
         </is>
       </c>
       <c r="C58" s="238" t="n">
-        <v>170.8644</v>
+        <v>171.7044</v>
       </c>
       <c r="D58" s="238" t="n">
-        <v>1049.5956</v>
+        <v>1054.7556</v>
       </c>
       <c r="E58" s="239" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="240" t="n">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="G58" s="241" t="n">
         <v>90</v>
@@ -40158,26 +40245,26 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="326" width="14.7109375"/>
-    <col customWidth="1" max="2" min="2" style="262" width="65.42578125"/>
-    <col customWidth="1" max="4" min="3" style="356" width="13.28515625"/>
-    <col customWidth="1" max="5" min="5" style="356" width="10.42578125"/>
+    <col customWidth="1" max="1" min="1" style="326" width="14.6640625"/>
+    <col customWidth="1" max="2" min="2" style="262" width="65.44140625"/>
+    <col customWidth="1" max="4" min="3" style="356" width="13.33203125"/>
+    <col customWidth="1" max="5" min="5" style="356" width="10.44140625"/>
     <col customWidth="1" max="6" min="6" style="356" width="10"/>
-    <col customWidth="1" max="7" min="7" style="356" width="12.5703125"/>
-    <col customWidth="1" max="9" min="8" style="356" width="18.140625"/>
-    <col customWidth="1" max="10" min="10" style="356" width="14.140625"/>
-    <col customWidth="1" max="11" min="11" style="356" width="14.7109375"/>
+    <col customWidth="1" max="7" min="7" style="356" width="12.5546875"/>
+    <col customWidth="1" max="9" min="8" style="356" width="18.109375"/>
+    <col customWidth="1" max="10" min="10" style="356" width="14.109375"/>
+    <col customWidth="1" max="11" min="11" style="356" width="14.6640625"/>
     <col customWidth="1" max="12" min="12" style="356" width="16"/>
     <col customWidth="1" max="14" min="13" style="356" width="18"/>
-    <col customWidth="1" max="18" min="15" style="356" width="22.140625"/>
-    <col customWidth="1" max="19" min="19" style="356" width="26.28515625"/>
-    <col customWidth="1" max="20" min="20" style="356" width="18.85546875"/>
-    <col customWidth="1" max="21" min="21" style="356" width="20.85546875"/>
-    <col customWidth="1" max="22" min="22" style="356" width="14.28515625"/>
-    <col customWidth="1" max="23" min="23" style="356" width="21.42578125"/>
-    <col customWidth="1" max="24" min="24" style="356" width="11.85546875"/>
+    <col customWidth="1" max="18" min="15" style="356" width="22.109375"/>
+    <col customWidth="1" max="19" min="19" style="356" width="26.33203125"/>
+    <col customWidth="1" max="20" min="20" style="356" width="18.88671875"/>
+    <col customWidth="1" max="21" min="21" style="356" width="20.88671875"/>
+    <col customWidth="1" max="22" min="22" style="356" width="14.33203125"/>
+    <col customWidth="1" max="23" min="23" style="356" width="21.44140625"/>
+    <col customWidth="1" max="24" min="24" style="356" width="11.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -44129,33 +44216,33 @@
       <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="326" width="14.7109375"/>
-    <col customWidth="1" max="2" min="2" style="356" width="82.140625"/>
+    <col customWidth="1" max="1" min="1" style="326" width="14.6640625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="82.109375"/>
     <col customWidth="1" max="3" min="3" style="356" width="23"/>
-    <col customWidth="1" max="4" min="4" style="356" width="22.85546875"/>
+    <col customWidth="1" max="4" min="4" style="356" width="22.88671875"/>
     <col customWidth="1" max="5" min="5" style="356" width="20"/>
-    <col customWidth="1" max="6" min="6" style="356" width="21.5703125"/>
-    <col customWidth="1" max="7" min="7" style="356" width="18.140625"/>
-    <col customWidth="1" max="8" min="8" style="356" width="14.140625"/>
-    <col customWidth="1" max="9" min="9" style="356" width="14.7109375"/>
+    <col customWidth="1" max="6" min="6" style="356" width="21.5546875"/>
+    <col customWidth="1" max="7" min="7" style="356" width="18.109375"/>
+    <col customWidth="1" max="8" min="8" style="356" width="14.109375"/>
+    <col customWidth="1" max="9" min="9" style="356" width="14.6640625"/>
     <col customWidth="1" max="10" min="10" style="356" width="16"/>
     <col customWidth="1" max="11" min="11" style="356" width="18"/>
-    <col customWidth="1" max="13" min="12" style="356" width="22.140625"/>
-    <col customWidth="1" max="14" min="14" style="54" width="22.140625"/>
-    <col customWidth="1" max="15" min="15" style="356" width="22.140625"/>
-    <col customWidth="1" max="16" min="16" style="356" width="26.28515625"/>
-    <col customWidth="1" max="17" min="17" style="356" width="17.140625"/>
-    <col customWidth="1" max="18" min="18" style="356" width="23.7109375"/>
-    <col customWidth="1" max="19" min="19" style="356" width="9.140625"/>
-    <col customWidth="1" max="20" min="20" style="356" width="21.28515625"/>
-    <col customWidth="1" max="21" min="21" style="356" width="21.42578125"/>
-    <col customWidth="1" max="22" min="22" style="356" width="17.85546875"/>
-    <col customWidth="1" max="23" min="23" style="326" width="13.140625"/>
-    <col customWidth="1" max="24" min="24" style="356" width="16.42578125"/>
-    <col customWidth="1" max="230" min="25" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="231" style="356" width="9.140625"/>
+    <col customWidth="1" max="13" min="12" style="356" width="22.109375"/>
+    <col customWidth="1" max="14" min="14" style="54" width="22.109375"/>
+    <col customWidth="1" max="15" min="15" style="356" width="22.109375"/>
+    <col customWidth="1" max="16" min="16" style="356" width="26.33203125"/>
+    <col customWidth="1" max="17" min="17" style="356" width="17.109375"/>
+    <col customWidth="1" max="18" min="18" style="356" width="23.6640625"/>
+    <col customWidth="1" max="19" min="19" style="356" width="9.109375"/>
+    <col customWidth="1" max="20" min="20" style="356" width="21.33203125"/>
+    <col customWidth="1" max="21" min="21" style="356" width="21.44140625"/>
+    <col customWidth="1" max="22" min="22" style="356" width="17.88671875"/>
+    <col customWidth="1" max="23" min="23" style="326" width="13.109375"/>
+    <col customWidth="1" max="24" min="24" style="356" width="16.44140625"/>
+    <col customWidth="1" max="231" min="25" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="232" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="18" r="1" s="70">
@@ -48763,31 +48850,31 @@
         <v>119</v>
       </c>
       <c r="J58" s="133" t="n">
-        <v>170.8644</v>
+        <v>171.7044</v>
       </c>
       <c r="K58" s="134" t="n">
-        <v>1049.5956</v>
+        <v>1054.7556</v>
       </c>
       <c r="L58" s="181" t="n">
         <v>0</v>
       </c>
       <c r="M58" s="187" t="n">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="N58" s="149" t="n">
         <v>0</v>
       </c>
       <c r="O58" s="359" t="n">
-        <v>19.5444</v>
+        <v>20.3844</v>
       </c>
       <c r="P58" s="359" t="n">
-        <v>-60.08439999999996</v>
+        <v>-54.92440000000011</v>
       </c>
       <c r="Q58" s="359" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="359" t="n">
-        <v>-40.53999999999996</v>
+        <v>-34.54000000000011</v>
       </c>
       <c r="S58" s="359" t="n">
         <v>58</v>
@@ -48799,7 +48886,7 @@
         <v>58</v>
       </c>
       <c r="V58" s="359" t="n">
-        <v>10.26</v>
+        <v>10.31</v>
       </c>
       <c r="W58" s="359" t="inlineStr">
         <is>
@@ -49313,10 +49400,10 @@
         <v>261.2379999999999</v>
       </c>
       <c r="J65" s="127" t="n">
-        <v>9315.380200000003</v>
+        <v>9320.540200000007</v>
       </c>
       <c r="K65" s="128" t="n">
-        <v>12129.8498</v>
+        <v>12124.68979999999</v>
       </c>
       <c r="L65" s="151" t="n">
         <v>0</v>
@@ -49328,10 +49415,10 @@
         <v>0</v>
       </c>
       <c r="O65" s="149" t="n">
-        <v>7881.080200000003</v>
+        <v>7886.240200000007</v>
       </c>
       <c r="P65" s="149" t="n">
-        <v>1611.649799999996</v>
+        <v>1606.489799999992</v>
       </c>
       <c r="Q65" s="149" t="n">
         <v>0</v>
@@ -50178,29 +50265,29 @@
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="326" width="14.7109375"/>
-    <col customWidth="1" max="2" min="2" style="356" width="82.140625"/>
+    <col customWidth="1" max="1" min="1" style="326" width="14.6640625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="82.109375"/>
     <col customWidth="1" max="3" min="3" style="356" width="23"/>
-    <col customWidth="1" max="4" min="4" style="356" width="22.85546875"/>
+    <col customWidth="1" max="4" min="4" style="356" width="22.88671875"/>
     <col customWidth="1" max="5" min="5" style="356" width="20"/>
-    <col customWidth="1" max="6" min="6" style="356" width="21.5703125"/>
-    <col customWidth="1" max="7" min="7" style="356" width="18.140625"/>
-    <col customWidth="1" max="8" min="8" style="356" width="14.140625"/>
-    <col customWidth="1" max="9" min="9" style="356" width="14.7109375"/>
+    <col customWidth="1" max="6" min="6" style="356" width="21.5546875"/>
+    <col customWidth="1" max="7" min="7" style="356" width="18.109375"/>
+    <col customWidth="1" max="8" min="8" style="356" width="14.109375"/>
+    <col customWidth="1" max="9" min="9" style="356" width="14.6640625"/>
     <col customWidth="1" max="10" min="10" style="356" width="16"/>
     <col customWidth="1" max="11" min="11" style="356" width="18"/>
-    <col customWidth="1" max="13" min="12" style="356" width="22.140625"/>
-    <col customWidth="1" max="14" min="14" style="326" width="22.140625"/>
-    <col customWidth="1" max="15" min="15" style="356" width="22.140625"/>
-    <col customWidth="1" max="16" min="16" style="356" width="26.28515625"/>
-    <col customWidth="1" max="17" min="17" style="356" width="17.140625"/>
-    <col customWidth="1" max="18" min="18" style="356" width="23.7109375"/>
-    <col customWidth="1" max="20" min="19" style="356" width="9.140625"/>
-    <col customWidth="1" max="21" min="21" style="356" width="16.140625"/>
-    <col customWidth="1" max="230" min="22" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="231" style="356" width="9.140625"/>
+    <col customWidth="1" max="13" min="12" style="356" width="22.109375"/>
+    <col customWidth="1" max="14" min="14" style="326" width="22.109375"/>
+    <col customWidth="1" max="15" min="15" style="356" width="22.109375"/>
+    <col customWidth="1" max="16" min="16" style="356" width="26.33203125"/>
+    <col customWidth="1" max="17" min="17" style="356" width="17.109375"/>
+    <col customWidth="1" max="18" min="18" style="356" width="23.6640625"/>
+    <col customWidth="1" max="20" min="19" style="356" width="9.109375"/>
+    <col customWidth="1" max="21" min="21" style="356" width="16.109375"/>
+    <col customWidth="1" max="231" min="22" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="232" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -54751,12 +54838,12 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="78.85546875"/>
+    <col customWidth="1" max="1" min="1" style="356" width="78.88671875"/>
     <col customWidth="1" max="2" min="2" style="356" width="15"/>
-    <col customWidth="1" max="3" min="3" style="356" width="15.42578125"/>
-    <col customWidth="1" max="5" min="5" style="356" width="16.140625"/>
+    <col customWidth="1" max="3" min="3" style="356" width="15.44140625"/>
+    <col customWidth="1" max="5" min="5" style="356" width="16.109375"/>
     <col customWidth="1" max="6" min="6" style="356" width="13"/>
   </cols>
   <sheetData>
@@ -55081,7 +55168,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" scale="82"/>
+  <pageSetup orientation="landscape" scale="83"/>
 </worksheet>
 </file>
 
@@ -55097,9 +55184,9 @@
       <selection activeCell="A1" sqref="A1:A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="15.140625"/>
+    <col customWidth="1" max="1" min="1" style="356" width="15.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -55469,27 +55556,27 @@
       <selection activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="356" width="15"/>
-    <col customWidth="1" max="2" min="2" style="70" width="71.42578125"/>
-    <col customWidth="1" max="3" min="3" style="356" width="9.140625"/>
-    <col customWidth="1" max="4" min="4" style="356" width="12.140625"/>
+    <col customWidth="1" max="2" min="2" style="70" width="71.44140625"/>
+    <col customWidth="1" max="3" min="3" style="356" width="9.109375"/>
+    <col customWidth="1" max="4" min="4" style="356" width="12.109375"/>
     <col customWidth="1" max="5" min="5" style="356" width="12"/>
-    <col customWidth="1" max="7" min="6" style="356" width="14.7109375"/>
-    <col customWidth="1" max="8" min="8" style="356" width="12.28515625"/>
-    <col customWidth="1" max="9" min="9" style="356" width="11.7109375"/>
-    <col customWidth="1" max="10" min="10" style="356" width="12.42578125"/>
-    <col customWidth="1" max="11" min="11" style="356" width="14.5703125"/>
-    <col customWidth="1" max="12" min="12" style="356" width="12.7109375"/>
-    <col customWidth="1" max="13" min="13" style="356" width="13.42578125"/>
-    <col customWidth="1" max="14" min="14" style="356" width="10.85546875"/>
-    <col customWidth="1" max="15" min="15" style="356" width="14.85546875"/>
+    <col customWidth="1" max="7" min="6" style="356" width="14.6640625"/>
+    <col customWidth="1" max="8" min="8" style="356" width="12.33203125"/>
+    <col customWidth="1" max="9" min="9" style="356" width="11.6640625"/>
+    <col customWidth="1" max="10" min="10" style="356" width="12.44140625"/>
+    <col customWidth="1" max="11" min="11" style="356" width="14.5546875"/>
+    <col customWidth="1" max="12" min="12" style="356" width="12.6640625"/>
+    <col customWidth="1" max="13" min="13" style="356" width="13.44140625"/>
+    <col customWidth="1" max="14" min="14" style="356" width="10.88671875"/>
+    <col customWidth="1" max="15" min="15" style="356" width="14.88671875"/>
     <col customWidth="1" max="16" min="16" style="356" width="14"/>
-    <col customWidth="1" max="17" min="17" style="356" width="13.42578125"/>
-    <col customWidth="1" max="18" min="18" style="356" width="27.7109375"/>
-    <col customWidth="1" max="205" min="19" style="356" width="8.7109375"/>
-    <col customWidth="1" max="16384" min="206" style="356" width="8.7109375"/>
+    <col customWidth="1" max="17" min="17" style="356" width="13.44140625"/>
+    <col customWidth="1" max="18" min="18" style="356" width="27.6640625"/>
+    <col customWidth="1" max="206" min="19" style="356" width="8.6640625"/>
+    <col customWidth="1" max="16384" min="207" style="356" width="8.6640625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18.75" r="1" s="356">
@@ -58810,13 +58897,13 @@
         <v>81</v>
       </c>
       <c r="D58" s="137" t="n">
-        <v>10.26</v>
+        <v>10.31</v>
       </c>
       <c r="E58" s="137" t="n">
         <v>119</v>
       </c>
       <c r="F58" s="137" t="n">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="G58" s="296" t="n"/>
       <c r="H58" s="74" t="n">
@@ -58971,7 +59058,7 @@
       <c r="V60" s="122" t="n"/>
       <c r="W60" s="326" t="n"/>
     </row>
-    <row customHeight="1" ht="27.95" r="61" s="356">
+    <row customHeight="1" ht="27.9" r="61" s="356">
       <c r="A61" s="136" t="n">
         <v>4111307</v>
       </c>
@@ -59868,22 +59955,22 @@
       <selection activeCell="D71" sqref="D2:D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="356" width="20"/>
-    <col customWidth="1" max="2" min="2" style="356" width="59.85546875"/>
-    <col customWidth="1" max="3" min="3" style="326" width="8.5703125"/>
-    <col customWidth="1" max="4" min="4" style="326" width="11.7109375"/>
-    <col customWidth="1" max="5" min="5" style="326" width="9.140625"/>
-    <col customWidth="1" max="6" min="6" style="326" width="13.5703125"/>
-    <col customWidth="1" max="10" min="7" style="326" width="15.42578125"/>
-    <col customWidth="1" max="11" min="11" style="169" width="11.28515625"/>
-    <col customWidth="1" max="12" min="12" style="169" width="12.28515625"/>
-    <col customWidth="1" max="13" min="13" style="169" width="11.85546875"/>
-    <col customWidth="1" max="14" min="14" style="169" width="12.7109375"/>
-    <col customWidth="1" max="15" min="15" style="169" width="12.140625"/>
-    <col customWidth="1" max="182" min="16" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="183" style="356" width="9.140625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="59.88671875"/>
+    <col customWidth="1" max="3" min="3" style="326" width="8.5546875"/>
+    <col customWidth="1" max="4" min="4" style="326" width="11.6640625"/>
+    <col customWidth="1" max="5" min="5" style="326" width="9.109375"/>
+    <col customWidth="1" max="6" min="6" style="326" width="13.5546875"/>
+    <col customWidth="1" max="10" min="7" style="326" width="15.44140625"/>
+    <col customWidth="1" max="11" min="11" style="169" width="11.33203125"/>
+    <col customWidth="1" max="12" min="12" style="169" width="12.33203125"/>
+    <col customWidth="1" max="13" min="13" style="169" width="11.88671875"/>
+    <col customWidth="1" max="14" min="14" style="169" width="12.6640625"/>
+    <col customWidth="1" max="15" min="15" style="169" width="12.109375"/>
+    <col customWidth="1" max="183" min="16" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="184" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -62917,28 +63004,28 @@
       <selection activeCell="L1" sqref="L1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="356" width="20"/>
-    <col customWidth="1" max="2" min="2" style="356" width="59.85546875"/>
-    <col customWidth="1" max="3" min="3" style="326" width="8.5703125"/>
-    <col customWidth="1" max="4" min="4" style="326" width="11.7109375"/>
-    <col customWidth="1" max="5" min="5" style="326" width="9.140625"/>
-    <col customWidth="1" max="6" min="6" style="326" width="13.5703125"/>
-    <col customWidth="1" max="7" min="7" style="326" width="15.42578125"/>
-    <col customWidth="1" max="8" min="8" style="326" width="17.28515625"/>
-    <col customWidth="1" max="9" min="9" style="326" width="12.5703125"/>
-    <col customWidth="1" max="11" min="10" style="326" width="15.42578125"/>
-    <col customWidth="1" max="12" min="12" style="169" width="19.28515625"/>
-    <col customWidth="1" max="13" min="13" style="169" width="11.85546875"/>
-    <col customWidth="1" max="14" min="14" style="169" width="12.28515625"/>
-    <col customWidth="1" max="15" min="15" style="169" width="11.28515625"/>
-    <col customWidth="1" max="16" min="16" style="169" width="12.28515625"/>
-    <col customWidth="1" max="17" min="17" style="169" width="11.85546875"/>
-    <col customWidth="1" max="18" min="18" style="169" width="12.7109375"/>
-    <col customWidth="1" max="19" min="19" style="169" width="12.140625"/>
-    <col customWidth="1" max="186" min="20" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="187" style="356" width="9.140625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="59.88671875"/>
+    <col customWidth="1" max="3" min="3" style="326" width="8.5546875"/>
+    <col customWidth="1" max="4" min="4" style="326" width="11.6640625"/>
+    <col customWidth="1" max="5" min="5" style="326" width="9.109375"/>
+    <col customWidth="1" max="6" min="6" style="326" width="13.5546875"/>
+    <col customWidth="1" max="7" min="7" style="326" width="15.44140625"/>
+    <col customWidth="1" max="8" min="8" style="326" width="17.33203125"/>
+    <col customWidth="1" max="9" min="9" style="326" width="12.5546875"/>
+    <col customWidth="1" max="11" min="10" style="326" width="15.44140625"/>
+    <col customWidth="1" max="12" min="12" style="169" width="19.33203125"/>
+    <col customWidth="1" max="13" min="13" style="169" width="11.88671875"/>
+    <col customWidth="1" max="14" min="14" style="169" width="12.33203125"/>
+    <col customWidth="1" max="15" min="15" style="169" width="11.33203125"/>
+    <col customWidth="1" max="16" min="16" style="169" width="12.33203125"/>
+    <col customWidth="1" max="17" min="17" style="169" width="11.88671875"/>
+    <col customWidth="1" max="18" min="18" style="169" width="12.6640625"/>
+    <col customWidth="1" max="19" min="19" style="169" width="12.109375"/>
+    <col customWidth="1" max="187" min="20" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="188" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -66541,12 +66628,12 @@
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="10.7109375"/>
-    <col customWidth="1" max="2" min="2" style="70" width="55.5703125"/>
+    <col customWidth="1" max="1" min="1" style="356" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="70" width="55.5546875"/>
     <col customWidth="1" max="3" min="3" style="356" width="17"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="356" width="11.85546875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="356" width="11.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -66762,7 +66849,7 @@
       </c>
       <c r="D10" s="326" t="n"/>
       <c r="E10" s="326" t="n"/>
-      <c r="F10" s="362" t="n"/>
+      <c r="F10" s="363" t="n"/>
       <c r="G10" s="326" t="n"/>
       <c r="H10" s="326" t="n"/>
       <c r="I10" s="326" t="n"/>
@@ -68188,12 +68275,12 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="356" width="18.140625"/>
+    <col customWidth="1" max="2" min="1" style="356" width="18.109375"/>
     <col customWidth="1" max="3" min="3" style="356" width="19"/>
-    <col customWidth="1" max="4" min="4" style="356" width="20.42578125"/>
-    <col customWidth="1" max="5" min="5" style="356" width="26.42578125"/>
+    <col customWidth="1" max="4" min="4" style="356" width="20.44140625"/>
+    <col customWidth="1" max="5" min="5" style="356" width="26.44140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -68362,10 +68449,10 @@
         </is>
       </c>
       <c r="B8" s="178" t="n">
-        <v>23490.92944</v>
+        <v>23494.40944</v>
       </c>
       <c r="C8" s="178" t="n">
-        <v>18935.00144838</v>
+        <v>18938.14040838</v>
       </c>
       <c r="D8" s="179" t="n">
         <v>14</v>
@@ -68384,10 +68471,10 @@
         </is>
       </c>
       <c r="B9" s="178" t="n">
-        <v>17970.18355999999</v>
+        <v>17972.70355999999</v>
       </c>
       <c r="C9" s="178" t="n">
-        <v>14492.70125162</v>
+        <v>14494.97429162</v>
       </c>
       <c r="D9" s="179" t="n">
         <v>15</v>
@@ -68420,18 +68507,18 @@
       <selection activeCell="C75" sqref="C75:F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9.140625" defaultRowHeight="28.5"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9.109375" defaultRowHeight="28.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="9.140625"/>
-    <col customWidth="1" max="2" min="2" style="356" width="39.85546875"/>
-    <col customWidth="1" max="5" min="3" style="356" width="9.140625"/>
-    <col customWidth="1" max="6" min="6" style="356" width="11.85546875"/>
-    <col customWidth="1" max="7" min="7" style="326" width="9.140625"/>
-    <col customWidth="1" max="8" min="8" style="356" width="15.28515625"/>
-    <col customWidth="1" max="10" min="9" style="356" width="9.140625"/>
-    <col customWidth="1" max="11" min="11" style="356" width="60.140625"/>
-    <col customWidth="1" max="128" min="12" style="356" width="9.140625"/>
-    <col customWidth="1" max="16384" min="129" style="356" width="9.140625"/>
+    <col customWidth="1" max="1" min="1" style="356" width="9.109375"/>
+    <col customWidth="1" max="2" min="2" style="356" width="39.88671875"/>
+    <col customWidth="1" max="5" min="3" style="356" width="9.109375"/>
+    <col customWidth="1" max="6" min="6" style="356" width="11.88671875"/>
+    <col customWidth="1" max="7" min="7" style="326" width="9.109375"/>
+    <col customWidth="1" max="8" min="8" style="356" width="15.33203125"/>
+    <col customWidth="1" max="10" min="9" style="356" width="9.109375"/>
+    <col customWidth="1" max="11" min="11" style="356" width="60.109375"/>
+    <col customWidth="1" max="129" min="12" style="356" width="9.109375"/>
+    <col customWidth="1" max="16384" min="130" style="356" width="9.109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="28.5" r="1" s="356">
@@ -70762,13 +70849,13 @@
       <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="24.28515625"/>
-    <col customWidth="1" max="3" min="2" style="356" width="9.85546875"/>
-    <col customWidth="1" max="4" min="4" style="356" width="14.5703125"/>
+    <col customWidth="1" max="1" min="1" style="356" width="24.33203125"/>
+    <col customWidth="1" max="3" min="2" style="356" width="9.88671875"/>
+    <col customWidth="1" max="4" min="4" style="356" width="14.5546875"/>
     <col customWidth="1" max="5" min="5" style="356" width="14"/>
-    <col customWidth="1" max="6" min="6" style="356" width="15.140625"/>
+    <col customWidth="1" max="6" min="6" style="356" width="15.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -70973,10 +71060,10 @@
         <v>53727</v>
       </c>
       <c r="E9" s="268" t="n">
-        <v>62141.8</v>
+        <v>62147.8</v>
       </c>
       <c r="F9" s="268" t="n">
-        <v>8414.800000000003</v>
+        <v>8420.800000000003</v>
       </c>
     </row>
     <row r="10">
@@ -71026,14 +71113,14 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="356" width="10.42578125"/>
-    <col customWidth="1" max="2" min="2" style="70" width="49.42578125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="356" width="8.85546875"/>
-    <col customWidth="1" max="5" min="4" style="356" width="8.7109375"/>
-    <col customWidth="1" max="9" min="9" style="356" width="18.42578125"/>
-    <col customWidth="1" max="11" min="11" style="356" width="14.7109375"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="356" width="10.44140625"/>
+    <col customWidth="1" max="2" min="2" style="70" width="49.44140625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="356" width="8.88671875"/>
+    <col customWidth="1" max="5" min="4" style="356" width="8.6640625"/>
+    <col customWidth="1" max="9" min="9" style="356" width="18.44140625"/>
+    <col customWidth="1" max="11" min="11" style="356" width="14.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -71114,19 +71201,19 @@
         <v>119</v>
       </c>
       <c r="F2" s="196" t="n">
-        <v>170.8644</v>
+        <v>171.7044</v>
       </c>
       <c r="G2" s="196" t="n">
-        <v>1049.5956</v>
+        <v>1054.7556</v>
       </c>
       <c r="H2" s="196" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="359" t="n">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="J2" s="201" t="n">
-        <v>10.25596638655462</v>
+        <v>10.30638655462185</v>
       </c>
       <c r="K2" s="359" t="n">
         <v>2</v>
@@ -71216,7 +71303,7 @@
       <c r="L4" s="326" t="n"/>
       <c r="M4" s="326" t="n"/>
     </row>
-    <row customHeight="1" ht="26.45" r="5" s="356">
+    <row customHeight="1" ht="26.4" r="5" s="356">
       <c r="A5" s="195" t="n">
         <v>4111307</v>
       </c>
@@ -71654,10 +71741,10 @@
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="15.42578125"/>
-    <col customWidth="1" max="2" min="2" style="356" width="6.85546875"/>
+    <col customWidth="1" max="1" min="1" style="356" width="15.44140625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="6.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -74092,13 +74179,13 @@
       <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="17.7109375"/>
-    <col customWidth="1" max="2" min="2" style="356" width="17.42578125"/>
-    <col customWidth="1" max="5" min="5" style="356" width="8.7109375"/>
-    <col customWidth="1" max="6" min="6" style="356" width="9.7109375"/>
-    <col customWidth="1" max="13" min="13" style="356" width="11.5703125"/>
+    <col customWidth="1" max="1" min="1" style="356" width="17.6640625"/>
+    <col customWidth="1" max="2" min="2" style="356" width="17.44140625"/>
+    <col customWidth="1" max="5" min="5" style="356" width="8.6640625"/>
+    <col customWidth="1" max="6" min="6" style="356" width="9.6640625"/>
+    <col customWidth="1" max="13" min="13" style="356" width="11.5546875"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="30" r="1" s="70">
@@ -76560,10 +76647,10 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="19.85546875"/>
-    <col customWidth="1" max="15" min="15" style="356" width="8.7109375"/>
+    <col customWidth="1" max="1" min="1" style="356" width="19.88671875"/>
+    <col customWidth="1" max="15" min="15" style="356" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -79191,9 +79278,9 @@
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="356" width="17.28515625"/>
+    <col customWidth="1" max="1" min="1" style="356" width="17.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
